--- a/ceds/regions.xlsx
+++ b/ceds/regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27424"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\CEDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73CE376-AAFB-4143-B687-71577106A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27FCA728-9D24-4E3E-A960-10354824D2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="-24" windowWidth="23088" windowHeight="12408" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24" yWindow="-24" windowWidth="23088" windowHeight="12408" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PIT!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">WAS!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -154,64 +157,67 @@
     <t>telework_score</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>72</t>
   </si>
   <si>
-    <t>81</t>
+    <t>Sector</t>
   </si>
   <si>
-    <t>comp_emp</t>
+    <t>comp</t>
   </si>
   <si>
     <t>aut</t>
@@ -220,13 +226,13 @@
     <t>tel</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>aut_cat</t>
   </si>
   <si>
     <t>aut_cat_emp</t>
+  </si>
+  <si>
+    <t>emp_pct</t>
   </si>
   <si>
     <t>tel_cat</t>
@@ -235,37 +241,58 @@
     <t>tel_cat_emp</t>
   </si>
   <si>
-    <t>emp_pct</t>
+    <t>low</t>
   </si>
   <si>
-    <t>comp</t>
+    <t>med</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>tot_emp</t>
   </si>
   <si>
-    <t>low</t>
+    <t>comp_emp</t>
+  </si>
+  <si>
+    <t>comp_emp_pct</t>
   </si>
   <si>
     <t>medium</t>
   </si>
   <si>
-    <t>high</t>
-  </si>
-  <si>
     <t>comp_pct</t>
-  </si>
-  <si>
-    <t>comp_emp_pct</t>
-  </si>
-  <si>
-    <t>med</t>
   </si>
   <si>
     <t>Region</t>
   </si>
   <si>
-    <t>Philadelphia</t>
+    <t>Competitive Employment</t>
+  </si>
+  <si>
+    <t>Low Automation</t>
+  </si>
+  <si>
+    <t>Medium Automation</t>
+  </si>
+  <si>
+    <t>High Automation</t>
+  </si>
+  <si>
+    <t>Low Telework</t>
+  </si>
+  <si>
+    <t>Medium Telework</t>
+  </si>
+  <si>
+    <t>High Telework</t>
+  </si>
+  <si>
+    <t>Greater Philadelphia</t>
   </si>
   <si>
     <t>Atlanta</t>
@@ -295,31 +322,10 @@
     <t>Washington, D.C.</t>
   </si>
   <si>
-    <t>Competitive Employment</t>
+    <t>Educational Services</t>
   </si>
   <si>
-    <t>Low Automation</t>
-  </si>
-  <si>
-    <t>Medium Automation</t>
-  </si>
-  <si>
-    <t>High Automation</t>
-  </si>
-  <si>
-    <t>Low Telework</t>
-  </si>
-  <si>
-    <t>Medium Telework</t>
-  </si>
-  <si>
-    <t>High Telework</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Educational Services</t>
+    <t>test</t>
   </si>
   <si>
     <t>Management of Companies and Enterprises</t>
@@ -375,9 +381,6 @@
   <si>
     <t>Mining, Quarrying, and Oil and Gas Extraction</t>
   </si>
-  <si>
-    <t>test</t>
-  </si>
 </sst>
 </file>
 
@@ -390,7 +393,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4302,7 +4305,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -4648,7 +4651,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -4755,7 +4758,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -4862,7 +4865,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -5238,7 +5241,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -5345,7 +5348,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -5452,7 +5455,7 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>Philadelphia</c:v>
+                  <c:v>Greater Philadelphia</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Atlanta</c:v>
@@ -27638,16 +27641,16 @@
       <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="2" width="8.76171875" style="5"/>
+    <col min="1" max="2" width="8.75" style="5"/>
     <col min="3" max="23" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="15.234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.76171875" style="5"/>
+    <col min="26" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="14.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -27721,12 +27724,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:25" ht="14.45">
       <c r="A2" s="1">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5">
         <v>3414629</v>
@@ -27798,12 +27801,12 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" ht="14.45">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>2180602</v>
@@ -27875,12 +27878,12 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="14.45">
       <c r="A4" s="1">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5">
         <v>6738309</v>
@@ -27952,12 +27955,12 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" ht="14.45">
       <c r="A5" s="1">
         <v>13</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5">
         <v>12509600</v>
@@ -28029,12 +28032,12 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:25" ht="14.45">
       <c r="A6" s="1">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5">
         <v>3484154</v>
@@ -28106,12 +28109,12 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:25" ht="14.45">
       <c r="A7" s="1">
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C7" s="5">
         <v>9531475</v>
@@ -28183,12 +28186,12 @@
         <v>0.35199999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" ht="14.45">
       <c r="A8" s="1">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C8" s="5">
         <v>3488028</v>
@@ -28260,12 +28263,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:25" ht="14.45">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="5">
         <v>5925945</v>
@@ -28337,12 +28340,12 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:25" ht="14.45">
       <c r="A10" s="1">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C10" s="5">
         <v>11710424</v>
@@ -28414,12 +28417,12 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:25" ht="14.45">
       <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5">
         <v>633738</v>
@@ -28491,12 +28494,12 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:25" ht="14.45">
       <c r="A12" s="1">
         <v>15</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5">
         <v>20681593</v>
@@ -28568,12 +28571,12 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:25" ht="14.45">
       <c r="A13" s="1">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>5105104</v>
@@ -28645,12 +28648,12 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:25" ht="14.45">
       <c r="A14" s="1">
         <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5">
         <v>5693641</v>
@@ -28722,12 +28725,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:25" ht="14.45">
       <c r="A15" s="1">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>1858669</v>
@@ -28799,12 +28802,12 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:25" ht="14.45">
       <c r="A16" s="1">
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5">
         <v>7062022</v>
@@ -28876,12 +28879,12 @@
         <v>0.186</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" ht="14.45">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5">
         <v>15530630</v>
@@ -28953,12 +28956,12 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" ht="14.45">
       <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C18" s="5">
         <v>165688</v>
@@ -29030,12 +29033,12 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" ht="14.45">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C19" s="5">
         <v>474877</v>
@@ -29107,12 +29110,12 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" ht="14.45">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="5">
         <v>12142327</v>
@@ -29226,30 +29229,30 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.234375" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.25" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.76171875" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.47265625" customWidth="1"/>
-    <col min="16" max="16" width="5.6171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.75" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -29264,13 +29267,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -29279,22 +29282,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29325,7 +29328,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <f>SUMIF($I$2:$I$5, "=low", $E$2:$E$5)</f>
@@ -29336,7 +29339,7 @@
         <v>0.44526236315590789</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$5, "=low", $E$2:$E$5)</f>
@@ -29347,9 +29350,9 @@
         <v>0.10897980369950924</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29380,7 +29383,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f>SUMIF($I$2:$I$5, "=medium", $E$2:$E$5)</f>
@@ -29391,7 +29394,7 @@
         <v>0.55473763684409216</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$5, "=medium", $E$2:$E$5)</f>
@@ -29402,9 +29405,9 @@
         <v>0.89102019630049079</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29435,7 +29438,7 @@
         <v>low</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <f>SUMIF($I$2:$I$5, "=high", $E$2:$E$5)</f>
@@ -29446,7 +29449,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <f>SUMIF($J$2:$J$5, "=high", $E$2:$E$5)</f>
@@ -29457,9 +29460,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29490,23 +29493,23 @@
         <v>low</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29537,9 +29540,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29570,9 +29573,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29603,9 +29606,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29636,9 +29639,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29669,9 +29672,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29702,9 +29705,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29735,9 +29738,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29768,9 +29771,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29801,9 +29804,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29834,9 +29837,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29867,9 +29870,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29900,9 +29903,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29933,9 +29936,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29966,9 +29969,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -29999,25 +30002,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E20)</f>
         <v>1033189</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>127152</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -30041,31 +30044,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C37221A-46D6-463A-8D40-DE404518DFAA}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6171875" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.625" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -30080,13 +30083,13 @@
         <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -30095,22 +30098,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30141,7 +30144,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$5, "=low", $E$2:$E$5)</f>
@@ -30152,7 +30155,7 @@
         <v>0.20647663647363662</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2">
         <f>SUMIF($J$2:$J$5, "=low", $E$2:$E$5)</f>
@@ -30163,9 +30166,9 @@
         <v>0.1833345748782447</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30196,7 +30199,7 @@
         <v>low</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$5, "=medium", $E$2:$E$5)</f>
@@ -30207,7 +30210,7 @@
         <v>0.79352336352636332</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2">
         <f>SUMIF($J$2:$J$5, "=medium", $E$2:$E$5)</f>
@@ -30218,9 +30221,9 @@
         <v>0.81666542512175533</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30251,7 +30254,7 @@
         <v>medium</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$5, "=high", $E$2:$E$5)</f>
@@ -30262,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2">
         <f>SUMIF($J$2:$J$5, "=high", $E$2:$E$5)</f>
@@ -30273,9 +30276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30306,23 +30309,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30353,9 +30356,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30386,9 +30389,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30419,9 +30422,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30452,9 +30455,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30485,9 +30488,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30518,9 +30521,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30551,9 +30554,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30584,9 +30587,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30617,9 +30620,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30650,9 +30653,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30683,9 +30686,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30716,9 +30719,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30749,9 +30752,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30782,9 +30785,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -30815,25 +30818,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E20)</f>
         <v>2633782</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>993386</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -30857,51 +30860,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611AAF0F-26B0-4AB7-9222-A0FE15140066}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="15.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.76171875" customWidth="1"/>
-    <col min="4" max="4" width="18.76171875" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="14.234375" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6">
         <f>dvrpc!E25</f>
@@ -30932,9 +30935,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6">
         <f>ATL!E25</f>
@@ -30965,9 +30968,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6">
         <f>BAL!E25</f>
@@ -30998,9 +31001,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6">
         <f>BOS!E25</f>
@@ -31031,9 +31034,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B6" s="6">
         <f>CHI!E25</f>
@@ -31064,9 +31067,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6">
         <f>DAL!E25</f>
@@ -31097,9 +31100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6">
         <f>LAX!E25</f>
@@ -31130,9 +31133,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6">
         <f>NYC!E25</f>
@@ -31163,9 +31166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6">
         <f>PIT!E25</f>
@@ -31196,9 +31199,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6">
         <f>WAS!E25</f>
@@ -31247,37 +31250,37 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>61</v>
@@ -31287,140 +31290,140 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>81</v>
+      <c r="B19" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -31436,32 +31439,32 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.234375" customWidth="1"/>
-    <col min="4" max="4" width="13.6171875" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.47265625" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.875" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.37890625" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.76171875" customWidth="1"/>
-    <col min="15" max="15" width="1.47265625" customWidth="1"/>
-    <col min="16" max="16" width="5.6171875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" customWidth="1"/>
+    <col min="15" max="15" width="1.5" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -31476,14 +31479,14 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -31492,22 +31495,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31538,7 +31541,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <f>SUMIF($I$2:$I$6, "=low", $E$2:$E$6)</f>
@@ -31549,7 +31552,7 @@
         <v>0.68943471611014218</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$6, "=low", $E$2:$E$6)</f>
@@ -31560,9 +31563,9 @@
         <v>0.58072810041882428</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31593,7 +31596,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f>SUMIF($I$2:$I$6, "=medium", $E$2:$E$6)</f>
@@ -31604,7 +31607,7 @@
         <v>0.31056528388985777</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$6, "=medium", $E$2:$E$6)</f>
@@ -31615,9 +31618,9 @@
         <v>0.41927189958117572</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31649,7 +31652,7 @@
         <v>low</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <f>SUMIF($I$2:$I$6, "=high", $E$2:$E$6)</f>
@@ -31660,7 +31663,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <f>SUMIF($J$2:$J$6, "=high", $E$2:$E$6)</f>
@@ -31671,9 +31674,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31704,23 +31707,23 @@
         <v>low</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31751,9 +31754,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31784,9 +31787,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31817,9 +31820,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31850,9 +31853,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31883,9 +31886,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31916,9 +31919,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31949,9 +31952,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -31982,9 +31985,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32015,9 +32018,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32048,9 +32051,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32081,9 +32084,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32114,9 +32117,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32147,9 +32150,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32180,9 +32183,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32213,25 +32216,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E20)</f>
         <v>2485307</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>969619</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -32259,31 +32262,31 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.234375" customWidth="1"/>
-    <col min="11" max="11" width="2.47265625" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.6171875" customWidth="1"/>
-    <col min="16" max="16" width="5.6171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.37890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.25" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -32298,14 +32301,14 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -32314,23 +32317,23 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32362,7 +32365,7 @@
         <v>medium</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <f>SUMIF($I$2:$I$6, "=low", $E$2:$E$6)</f>
@@ -32373,7 +32376,7 @@
         <v>0.14517515227377537</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$6, "=low", $E$2:$E$6)</f>
@@ -32385,9 +32388,9 @@
       </c>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32419,7 +32422,7 @@
         <v>low</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f>SUMIF($I$2:$I$6, "=medium", $E$2:$E$6)</f>
@@ -32430,7 +32433,7 @@
         <v>0.60006797669028378</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$6, "=medium", $E$2:$E$6)</f>
@@ -32442,9 +32445,9 @@
       </c>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32476,7 +32479,7 @@
         <v>medium</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <f>SUMIF($I$2:$I$6, "=high", $E$2:$E$6)</f>
@@ -32488,7 +32491,7 @@
       </c>
       <c r="O4" s="8"/>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <f>SUMIF($J$2:$J$6, "=high", $E$2:$E$6)</f>
@@ -32500,9 +32503,9 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32534,23 +32537,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32582,9 +32585,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32616,9 +32619,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32650,9 +32653,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32684,9 +32687,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32718,9 +32721,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32752,9 +32755,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32786,9 +32789,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32820,9 +32823,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32854,9 +32857,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32888,9 +32891,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32922,9 +32925,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32956,9 +32959,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -32990,9 +32993,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33024,9 +33027,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33058,25 +33061,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E20)</f>
         <v>2418244</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>667876</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -33104,32 +33107,32 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.37890625" customWidth="1"/>
-    <col min="11" max="11" width="1.47265625" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.375" customWidth="1"/>
+    <col min="11" max="11" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.37890625" customWidth="1"/>
+    <col min="15" max="15" width="3.375" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -33144,14 +33147,14 @@
         <v>7</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -33160,22 +33163,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33206,7 +33209,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$3, "=low", $E$2:$E$3)</f>
@@ -33217,7 +33220,7 @@
         <v>0.27618603344669496</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$3, "=low", $E$2:$E$3)</f>
@@ -33228,9 +33231,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33261,7 +33264,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$3, "=medium", $E$2:$E$3)</f>
@@ -33272,7 +33275,7 @@
         <v>0.72381396655330499</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$3, "=medium", $E$2:$E$3)</f>
@@ -33283,9 +33286,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33316,7 +33319,7 @@
         <v>low</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$6, "=high", $E$2:$E$6)</f>
@@ -33327,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <f>SUMIF($J$2:$J$3, "=high", $E$2:$E$3)</f>
@@ -33338,9 +33341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33371,23 +33374,23 @@
         <v>low</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33418,9 +33421,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33451,9 +33454,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33484,9 +33487,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33517,9 +33520,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33550,9 +33553,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33583,9 +33586,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33616,9 +33619,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33649,9 +33652,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33682,9 +33685,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33715,9 +33718,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33748,9 +33751,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33781,9 +33784,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33814,9 +33817,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33847,9 +33850,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -33880,27 +33883,27 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E2:E20)</f>
         <v>1143364</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>199362</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <f>E23/E22</f>
@@ -33921,31 +33924,31 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.76171875" customWidth="1"/>
-    <col min="11" max="11" width="2.76171875" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.75" customWidth="1"/>
+    <col min="11" max="11" width="2.75" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="5.6171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -33960,13 +33963,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -33975,22 +33978,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34021,7 +34024,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$5, "=low", $E$2:$E$5)</f>
@@ -34032,7 +34035,7 @@
         <v>0.42074892056207314</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$5, "=low", $E$2:$E$5)</f>
@@ -34043,9 +34046,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34076,7 +34079,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$5, "=medium", $E$2:$E$5)</f>
@@ -34087,7 +34090,7 @@
         <v>0.57925107943792686</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$5, "=medium", $E$2:$E$5)</f>
@@ -34098,9 +34101,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34131,7 +34134,7 @@
         <v>medium</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$5, "=high", $E$2:$E$5)</f>
@@ -34142,7 +34145,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2">
         <f>SUMIF($J$2:$J$5, "=high", $E$2:$E$5)</f>
@@ -34153,9 +34156,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34186,23 +34189,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" s="2" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23,"true","false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34233,9 +34236,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34266,9 +34269,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34299,9 +34302,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34332,9 +34335,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34365,9 +34368,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34398,9 +34401,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34431,9 +34434,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34464,9 +34467,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34497,9 +34500,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34530,9 +34533,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34563,9 +34566,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34596,9 +34599,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34629,9 +34632,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34662,9 +34665,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34695,25 +34698,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E2:E20)</f>
         <v>2431477</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>666319</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -34741,33 +34744,33 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.234375" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.25" customWidth="1"/>
     <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6171875" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" customWidth="1"/>
+    <col min="12" max="12" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.234375" customWidth="1"/>
-    <col min="16" max="16" width="5.6171875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.25" customWidth="1"/>
+    <col min="16" max="16" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -34782,13 +34785,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -34797,22 +34800,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34843,7 +34846,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$6, "=low", $E$2:$E$6)</f>
@@ -34854,7 +34857,7 @@
         <v>0.1296490231523712</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2">
         <f>SUMIF($J$2:$J$6, "=low", $E$2:$E$6)</f>
@@ -34865,9 +34868,9 @@
         <v>0.45981593559596123</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34898,7 +34901,7 @@
         <v>low</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$6, "=medium", $E$2:$E$6)</f>
@@ -34909,7 +34912,7 @@
         <v>0.64263881153751501</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2">
         <f>SUMIF($J$2:$J$6, "=medium", $E$2:$E$6)</f>
@@ -34920,9 +34923,9 @@
         <v>0.54018406440403877</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -34953,7 +34956,7 @@
         <v>low</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$6, "=high", $E$2:$E$6)</f>
@@ -34964,7 +34967,7 @@
         <v>0.22771216531011373</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2">
         <f>SUMIF($J$2:$J$6, "=high", $E$2:$E$6)</f>
@@ -34975,9 +34978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35008,23 +35011,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35055,9 +35058,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35088,9 +35091,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35121,9 +35124,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35154,9 +35157,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35187,9 +35190,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35220,9 +35223,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35253,9 +35256,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35286,9 +35289,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35319,9 +35322,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35352,9 +35355,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35385,9 +35388,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35418,9 +35421,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35451,9 +35454,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35484,9 +35487,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35517,25 +35520,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E2:E20)</f>
         <v>4022610</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>1080926</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -35563,28 +35566,28 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.37890625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.37890625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.76171875" customWidth="1"/>
-    <col min="11" max="11" width="1.37890625" customWidth="1"/>
-    <col min="13" max="13" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
-    <col min="17" max="17" width="10.76171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.75" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="13" max="13" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.125" customWidth="1"/>
+    <col min="17" max="17" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -35599,13 +35602,13 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -35614,22 +35617,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35660,7 +35663,7 @@
         <v>low</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$5, "=low", $E$2:$E$5)</f>
@@ -35671,7 +35674,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2">
         <f>SUMIF($J$2:$J$5, "=low", $E$2:$E$5)</f>
@@ -35682,9 +35685,9 @@
         <v>0.33839254242881034</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35715,7 +35718,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$5, "=medium", $E$2:$E$5)</f>
@@ -35726,7 +35729,7 @@
         <v>0.66160745757118966</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2">
         <f>SUMIF($J$2:$J$5, "=medium", $E$2:$E$5)</f>
@@ -35737,9 +35740,9 @@
         <v>0.66160745757118966</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35770,7 +35773,7 @@
         <v>medium</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$5, "=high", $E$2:$E$5)</f>
@@ -35781,7 +35784,7 @@
         <v>0.33839254242881034</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2">
         <f>SUMIF($J$2:$J$5, "=high", $E$2:$E$5)</f>
@@ -35792,9 +35795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35825,23 +35828,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35872,9 +35875,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35905,9 +35908,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35938,9 +35941,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -35971,9 +35974,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36004,9 +36007,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36037,9 +36040,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36070,9 +36073,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36103,9 +36106,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36136,9 +36139,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36169,9 +36172,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36202,9 +36205,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36235,9 +36238,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36268,9 +36271,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36301,9 +36304,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36334,25 +36337,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="2">
         <f>SUM(E2:E20)</f>
         <v>3244592</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>666705</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -36380,32 +36383,32 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.76171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.85546875" customWidth="1"/>
-    <col min="11" max="11" width="1.37890625" customWidth="1"/>
-    <col min="12" max="12" width="6.47265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6171875" customWidth="1"/>
-    <col min="20" max="20" width="3.37890625" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.875" customWidth="1"/>
+    <col min="11" max="11" width="1.375" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.125" customWidth="1"/>
+    <col min="16" max="16" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.625" customWidth="1"/>
+    <col min="20" max="20" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -36420,13 +36423,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -36435,22 +36438,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36481,7 +36484,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2">
         <f>SUMIF($I$2:$I$6, "=low", $E$2:$E$6)</f>
@@ -36492,7 +36495,7 @@
         <v>0.41554121950239159</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2">
         <f>SUMIF($J$2:$J$6, "=low", $E$2:$E$6)</f>
@@ -36503,9 +36506,9 @@
         <v>0.44923228425579809</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36536,7 +36539,7 @@
         <v>low</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
         <f>SUMIF($I$2:$I$6, "=medium", $E$2:$E$6)</f>
@@ -36547,7 +36550,7 @@
         <v>0.58445878049760847</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="2">
         <f>SUMIF($J$2:$J$6, "=medium", $E$2:$E$6)</f>
@@ -36558,9 +36561,9 @@
         <v>0.55076771574420191</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36591,7 +36594,7 @@
         <v>medium</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2">
         <f>SUMIF($I$2:$I$6, "=high", $E$2:$E$6)</f>
@@ -36602,7 +36605,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="2">
         <f>SUMIF($J$2:$J$6, "=high", $E$2:$E$6)</f>
@@ -36613,9 +36616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36646,23 +36649,23 @@
         <v>low</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36693,9 +36696,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36726,9 +36729,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36759,9 +36762,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36792,9 +36795,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36825,9 +36828,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36858,9 +36861,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36891,9 +36894,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36924,9 +36927,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36957,9 +36960,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -36990,9 +36993,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37023,9 +37026,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37056,9 +37059,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37089,9 +37092,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37122,9 +37125,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37155,25 +37158,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E2:E20)</f>
         <v>5083108</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>995160</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -37201,29 +37204,29 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.76171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="10" width="7.47265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.6171875" customWidth="1"/>
-    <col min="13" max="13" width="10.234375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.625" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.875" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="14.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -37238,13 +37241,13 @@
         <v>17</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>47</v>
@@ -37253,22 +37256,22 @@
         <v>48</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2" t="str">
         <f>_xlfn.XLOOKUP(A2, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37299,7 +37302,7 @@
         <v>medium</v>
       </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <f>SUMIF($I$2:$I$7, "=low", $E$2:$E$7)</f>
@@ -37310,7 +37313,7 @@
         <v>0.60898625027422482</v>
       </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2">
         <f>SUMIF($J$2:$J$7, "=low", $E$2:$E$7)</f>
@@ -37321,9 +37324,9 @@
         <v>0.43442243140975395</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B3" t="str">
         <f>_xlfn.XLOOKUP(A3, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37354,7 +37357,7 @@
         <v>medium</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f>SUMIF($I$2:$I$7, "=medium", $E$2:$E$7)</f>
@@ -37365,7 +37368,7 @@
         <v>0.39101374972577513</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q3">
         <f>SUMIF($J$2:$J$7, "=medium", $E$2:$E$7)</f>
@@ -37376,9 +37379,9 @@
         <v>0.56557756859024599</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B4" t="str">
         <f>_xlfn.XLOOKUP(A4, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37409,7 +37412,7 @@
         <v>medium</v>
       </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
         <f>SUMIF($I$2:$I$7, "=high", $E$2:$E$7)</f>
@@ -37420,7 +37423,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q4">
         <f>SUMIF($J$2:$J$7, "=high", $E$2:$E$7)</f>
@@ -37431,9 +37434,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" t="str">
         <f>_xlfn.XLOOKUP(A5, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37464,23 +37467,23 @@
         <v>medium</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M5" t="str">
         <f>IF(SUM(M2:M4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
       <c r="P5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(SUM(Q2:Q4)=E23, "true", "false")</f>
         <v>true</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B6" t="str">
         <f>_xlfn.XLOOKUP(A6, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37511,9 +37514,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" t="str">
         <f>_xlfn.XLOOKUP(A7, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37544,9 +37547,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.XLOOKUP(A8, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37577,9 +37580,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" t="str">
         <f>_xlfn.XLOOKUP(A9, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37610,9 +37613,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.XLOOKUP(A10, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37643,9 +37646,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(A11, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37676,9 +37679,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(A12, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37709,9 +37712,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13" t="str">
         <f>_xlfn.XLOOKUP(A13, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37742,9 +37745,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.XLOOKUP(A14, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37775,9 +37778,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B15" t="str">
         <f>_xlfn.XLOOKUP(A15, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37808,9 +37811,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.XLOOKUP(A16, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37841,9 +37844,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B17" t="str">
         <f>_xlfn.XLOOKUP(A17, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37874,9 +37877,9 @@
         <v>medium</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18" t="str">
         <f>_xlfn.XLOOKUP(A18, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37907,9 +37910,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B19" t="str">
         <f>_xlfn.XLOOKUP(A19, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37940,9 +37943,9 @@
         <v>low</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B20" t="str">
         <f>_xlfn.XLOOKUP(A20, lookup!A$2:A$20, lookup!B$2:B$20)</f>
@@ -37973,25 +37976,25 @@
         <v>low</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" s="8">
         <f>SUM(E2:E20)</f>
         <v>7881793</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10">
       <c r="D23" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E23" s="2">
         <f>SUMIF(G2:G20, "=competitive", E2:E20)</f>
         <v>3819858</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10">
       <c r="D25" t="s">
         <v>58</v>
       </c>
